--- a/data/trans_orig/P1434-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>12331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6417</v>
+        <v>6554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23396</v>
+        <v>21503</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02602652881364137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01354488912711856</v>
+        <v>0.01383324570907105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04938207236900566</v>
+        <v>0.04538702229287175</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>461445</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450380</v>
+        <v>452273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>467359</v>
+        <v>467222</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9739734711863586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9506179276309945</v>
+        <v>0.9546129777071283</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9864551108728815</v>
+        <v>0.986166754290929</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>9019</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4547</v>
+        <v>4508</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15780</v>
+        <v>16331</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02457997434138497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0123907353411759</v>
+        <v>0.0122853871533443</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04300558645459781</v>
+        <v>0.04450709430786908</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>357915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351154</v>
+        <v>350603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>362387</v>
+        <v>362426</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9754200256586151</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.956994413545402</v>
+        <v>0.9554929056921333</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9876092646588241</v>
+        <v>0.9877146128466557</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>12164</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6806</v>
+        <v>6967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20477</v>
+        <v>20391</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02242700658689359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0125488392674784</v>
+        <v>0.01284445499970593</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03775306208852802</v>
+        <v>0.03759435823384891</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>530225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>521912</v>
+        <v>521998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535583</v>
+        <v>535422</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9775729934131064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9622469379114723</v>
+        <v>0.9624056417661511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9874511607325218</v>
+        <v>0.987155545000294</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>54731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42072</v>
+        <v>41451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70849</v>
+        <v>69869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04419758047654888</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03397493426042117</v>
+        <v>0.03347289494306868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05721341061969176</v>
+        <v>0.05642147726366187</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>1183603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1167485</v>
+        <v>1168465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1196262</v>
+        <v>1196883</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9558024195234511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9427865893803082</v>
+        <v>0.9435785227363381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.966025065739579</v>
+        <v>0.9665271050569313</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>17028</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10216</v>
+        <v>10663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26798</v>
+        <v>26552</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04857331252467405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0291410428048284</v>
+        <v>0.03041861077531638</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07644386825881233</v>
+        <v>0.07574307157358948</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>333527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>323757</v>
+        <v>324003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>340339</v>
+        <v>339892</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.951426687475326</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9235561317411876</v>
+        <v>0.9242569284264106</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9708589571951717</v>
+        <v>0.9695813892246837</v>
       </c>
     </row>
     <row r="18">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003066313466181129</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
     </row>
     <row r="20">
@@ -1108,7 +1108,7 @@
         <v>297287</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>293627</v>
+        <v>293587</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1117,7 +1117,7 @@
         <v>0.9969336865338189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9846624411069284</v>
+        <v>0.984528625962181</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1170,19 +1170,19 @@
         <v>106188</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88711</v>
+        <v>89107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127098</v>
+        <v>128595</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03247136830423958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02712720199020536</v>
+        <v>0.02724818746380741</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0388654914227918</v>
+        <v>0.0393235543358084</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>3164002</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3143092</v>
+        <v>3141595</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3181479</v>
+        <v>3181083</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9675286316957604</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9611345085772083</v>
+        <v>0.960676445664192</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9728727980097945</v>
+        <v>0.9727518125361926</v>
       </c>
     </row>
     <row r="24">
@@ -1381,19 +1381,19 @@
         <v>14779</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7647</v>
+        <v>7478</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25840</v>
+        <v>25625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03397283022766612</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01757837621505644</v>
+        <v>0.01718895010283919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05939963857811127</v>
+        <v>0.05890662080738388</v>
       </c>
     </row>
     <row r="5">
@@ -1410,19 +1410,19 @@
         <v>420240</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409179</v>
+        <v>409394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427372</v>
+        <v>427541</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9660271697723338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9406003614218885</v>
+        <v>0.9410933791926162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9824216237849435</v>
+        <v>0.9828110498971607</v>
       </c>
     </row>
     <row r="6">
@@ -1472,19 +1472,19 @@
         <v>19326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10783</v>
+        <v>11164</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28247</v>
+        <v>29588</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04614761812989752</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02574836466962387</v>
+        <v>0.02665614299553483</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06744835788603276</v>
+        <v>0.07065112745399103</v>
       </c>
     </row>
     <row r="8">
@@ -1501,19 +1501,19 @@
         <v>399471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>390550</v>
+        <v>389209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>408014</v>
+        <v>407633</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9538523818701025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9325516421139673</v>
+        <v>0.9293488725460091</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9742516353303761</v>
+        <v>0.9733438570044652</v>
       </c>
     </row>
     <row r="9">
@@ -1563,19 +1563,19 @@
         <v>25721</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15180</v>
+        <v>16367</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37948</v>
+        <v>37853</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04086542080641285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02411738324802154</v>
+        <v>0.02600337022482431</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06029064632856342</v>
+        <v>0.06014025284652223</v>
       </c>
     </row>
     <row r="11">
@@ -1592,19 +1592,19 @@
         <v>603694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>591467</v>
+        <v>591562</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614235</v>
+        <v>613048</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9591345791935871</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9397093536714362</v>
+        <v>0.9398597471534776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9758826167519782</v>
+        <v>0.9739966297751755</v>
       </c>
     </row>
     <row r="12">
@@ -1654,19 +1654,19 @@
         <v>41113</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29919</v>
+        <v>30305</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54301</v>
+        <v>54327</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03547255390964429</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02581444524460529</v>
+        <v>0.02614769022090487</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.046851034584214</v>
+        <v>0.04687397488983672</v>
       </c>
     </row>
     <row r="14">
@@ -1683,19 +1683,19 @@
         <v>1117896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1104708</v>
+        <v>1104682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1129090</v>
+        <v>1128704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9645274460903557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9531489654157861</v>
+        <v>0.9531260251101633</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9741855547553947</v>
+        <v>0.9738523097790952</v>
       </c>
     </row>
     <row r="15">
@@ -1745,19 +1745,19 @@
         <v>23469</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15155</v>
+        <v>15140</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35465</v>
+        <v>34499</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04596457328658562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02968155032862589</v>
+        <v>0.02965131948495564</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0694587664061679</v>
+        <v>0.06756607294899358</v>
       </c>
     </row>
     <row r="17">
@@ -1774,19 +1774,19 @@
         <v>487127</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>475131</v>
+        <v>476097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>495441</v>
+        <v>495456</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9540354267134143</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9305412335938321</v>
+        <v>0.9324339270510065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9703184496713742</v>
+        <v>0.9703486805150443</v>
       </c>
     </row>
     <row r="18">
@@ -1911,19 +1911,19 @@
         <v>124409</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>102673</v>
+        <v>102003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>149921</v>
+        <v>150334</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03637988800413515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0300238261727502</v>
+        <v>0.02982793413972675</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04384023250017213</v>
+        <v>0.04396102033889068</v>
       </c>
     </row>
     <row r="23">
@@ -1940,19 +1940,19 @@
         <v>3295309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3269797</v>
+        <v>3269384</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3317045</v>
+        <v>3317715</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9636201119958648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9561597674998278</v>
+        <v>0.9560389796611086</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9699761738272497</v>
+        <v>0.9701720658602732</v>
       </c>
     </row>
     <row r="24">
@@ -2122,19 +2122,19 @@
         <v>14678</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8431</v>
+        <v>8485</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24438</v>
+        <v>23262</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03420638032143172</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0196474123593772</v>
+        <v>0.01977410145113084</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05695185359029371</v>
+        <v>0.05421253578886541</v>
       </c>
     </row>
     <row r="5">
@@ -2151,19 +2151,19 @@
         <v>414414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>404654</v>
+        <v>405830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420661</v>
+        <v>420607</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9657936196785682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.943048146409706</v>
+        <v>0.9457874642111349</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803525876406227</v>
+        <v>0.9802258985488693</v>
       </c>
     </row>
     <row r="6">
@@ -2213,19 +2213,19 @@
         <v>14622</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7503</v>
+        <v>7726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23697</v>
+        <v>24171</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03876283400861757</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01988871197661703</v>
+        <v>0.02047983395635902</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06281909268652672</v>
+        <v>0.06407551366283122</v>
       </c>
     </row>
     <row r="8">
@@ -2242,19 +2242,19 @@
         <v>362605</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353530</v>
+        <v>353056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>369724</v>
+        <v>369501</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9612371659913824</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9371809073134736</v>
+        <v>0.935924486337169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.980111288023383</v>
+        <v>0.9795201660436412</v>
       </c>
     </row>
     <row r="9">
@@ -2304,19 +2304,19 @@
         <v>20463</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12860</v>
+        <v>13384</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30349</v>
+        <v>29956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03920827945612307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02463926985532792</v>
+        <v>0.02564421028874212</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05814857625218917</v>
+        <v>0.05739582617671055</v>
       </c>
     </row>
     <row r="11">
@@ -2333,19 +2333,19 @@
         <v>501451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>491565</v>
+        <v>491958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509054</v>
+        <v>508530</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.960791720543877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9418514237478109</v>
+        <v>0.9426041738232895</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9753607301446723</v>
+        <v>0.9743557897112579</v>
       </c>
     </row>
     <row r="12">
@@ -2395,19 +2395,19 @@
         <v>28245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20040</v>
+        <v>19696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40057</v>
+        <v>40021</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02456851700535707</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01743179298656147</v>
+        <v>0.01713218089809948</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03484308855587906</v>
+        <v>0.03481179964823916</v>
       </c>
     </row>
     <row r="14">
@@ -2424,19 +2424,19 @@
         <v>1121393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1109581</v>
+        <v>1109617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1129598</v>
+        <v>1129942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9754314829946429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9651569114441209</v>
+        <v>0.9651882003517607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9825682070134385</v>
+        <v>0.9828678191019004</v>
       </c>
     </row>
     <row r="15">
@@ -2486,19 +2486,19 @@
         <v>30994</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21942</v>
+        <v>22861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41821</v>
+        <v>42993</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04993359645794889</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03535036662846437</v>
+        <v>0.03683025046738353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06737634437337842</v>
+        <v>0.06926438887265034</v>
       </c>
     </row>
     <row r="17">
@@ -2515,19 +2515,19 @@
         <v>589712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>578885</v>
+        <v>577713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>598764</v>
+        <v>597845</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9500664035420511</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9326236556266218</v>
+        <v>0.93073561112735</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9646496333715356</v>
+        <v>0.9631697495326166</v>
       </c>
     </row>
     <row r="18">
@@ -2652,19 +2652,19 @@
         <v>109002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90471</v>
+        <v>90909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129561</v>
+        <v>131317</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03219472669126732</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02672143259470538</v>
+        <v>0.02685062567440588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03826674799892586</v>
+        <v>0.03878549437202938</v>
       </c>
     </row>
     <row r="23">
@@ -2681,19 +2681,19 @@
         <v>3276720</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3256161</v>
+        <v>3254405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3295251</v>
+        <v>3294813</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9678052733087327</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9617332520010742</v>
+        <v>0.9612145056279704</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9732785674052946</v>
+        <v>0.9731493743255939</v>
       </c>
     </row>
     <row r="24">
@@ -2863,19 +2863,19 @@
         <v>31584</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23683</v>
+        <v>23106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42870</v>
+        <v>42312</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0579128575433701</v>
+        <v>0.05791285754337011</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04342404961705253</v>
+        <v>0.04236735579121883</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07860599843896503</v>
+        <v>0.07758211886553164</v>
       </c>
     </row>
     <row r="5">
@@ -2892,19 +2892,19 @@
         <v>513795</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>502509</v>
+        <v>503067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521696</v>
+        <v>522273</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9420871424566297</v>
+        <v>0.9420871424566299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9213940015610351</v>
+        <v>0.9224178811344682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9565759503829476</v>
+        <v>0.9576326442087801</v>
       </c>
     </row>
     <row r="6">
@@ -2954,19 +2954,19 @@
         <v>29567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21269</v>
+        <v>21107</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40894</v>
+        <v>40220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06134130209024205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04412668384622617</v>
+        <v>0.04378945813997713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08484119631766143</v>
+        <v>0.08344445449383148</v>
       </c>
     </row>
     <row r="8">
@@ -2983,19 +2983,19 @@
         <v>452435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>441108</v>
+        <v>441782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460733</v>
+        <v>460895</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.938658697909758</v>
+        <v>0.9386586979097579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9151588036823385</v>
+        <v>0.9165555455061686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9558733161537738</v>
+        <v>0.9562105418600229</v>
       </c>
     </row>
     <row r="9">
@@ -3045,19 +3045,19 @@
         <v>30299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21459</v>
+        <v>22066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40582</v>
+        <v>41308</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0644856671323104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04567163612910152</v>
+        <v>0.04696246763315608</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08637120085579025</v>
+        <v>0.08791548374390812</v>
       </c>
     </row>
     <row r="11">
@@ -3074,19 +3074,19 @@
         <v>439557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>429274</v>
+        <v>428548</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>448397</v>
+        <v>447790</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9355143328676897</v>
+        <v>0.9355143328676896</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9136287991442097</v>
+        <v>0.9120845162560919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9543283638708985</v>
+        <v>0.9530375323668439</v>
       </c>
     </row>
     <row r="12">
@@ -3136,19 +3136,19 @@
         <v>67666</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54463</v>
+        <v>54488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83020</v>
+        <v>82039</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06025459901075956</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04849779092793427</v>
+        <v>0.04852002195263231</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07392689765928286</v>
+        <v>0.07305331144726832</v>
       </c>
     </row>
     <row r="14">
@@ -3165,19 +3165,19 @@
         <v>1055339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1039985</v>
+        <v>1040966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1068542</v>
+        <v>1068517</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9397454009892406</v>
+        <v>0.9397454009892405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9260731023407163</v>
+        <v>0.9269466885527313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9515022090720656</v>
+        <v>0.9514799780473676</v>
       </c>
     </row>
     <row r="15">
@@ -3227,19 +3227,19 @@
         <v>28642</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21008</v>
+        <v>20728</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38010</v>
+        <v>37919</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05073884493931188</v>
+        <v>0.05073884493931189</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03721445183658515</v>
+        <v>0.03671825454389217</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06733335015047463</v>
+        <v>0.06717246419766529</v>
       </c>
     </row>
     <row r="17">
@@ -3256,19 +3256,19 @@
         <v>535861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>526493</v>
+        <v>526584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>543495</v>
+        <v>543775</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9492611550606881</v>
+        <v>0.9492611550606883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9326666498495255</v>
+        <v>0.932827535802335</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.962785548163415</v>
+        <v>0.9632817454561082</v>
       </c>
     </row>
     <row r="18">
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4487</v>
+        <v>4225</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005170961505634913</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01891499666888343</v>
+        <v>0.0178094316421446</v>
       </c>
     </row>
     <row r="20">
@@ -3347,16 +3347,16 @@
         <v>236001</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232741</v>
+        <v>233003</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9948290384943652</v>
+        <v>0.9948290384943651</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9810850033311169</v>
+        <v>0.9821905683578555</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3409,19 +3409,19 @@
         <v>188985</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>165913</v>
+        <v>166722</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211890</v>
+        <v>213785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05522697858489973</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04848456731319273</v>
+        <v>0.04872111547029292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06192028163966723</v>
+        <v>0.06247411595376726</v>
       </c>
     </row>
     <row r="23">
@@ -3438,19 +3438,19 @@
         <v>3232989</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3210084</v>
+        <v>3208189</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3256061</v>
+        <v>3255252</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9447730214151002</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9380797183603327</v>
+        <v>0.9375258840462327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9515154326868071</v>
+        <v>0.951278884529707</v>
       </c>
     </row>
     <row r="24">
